--- a/Kilroy Equipment List 20XX.xlsx
+++ b/Kilroy Equipment List 20XX.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
   <si>
     <t>Kilroy Equipment List (20XX)</t>
   </si>
@@ -328,6 +328,42 @@
   </si>
   <si>
     <t>Change Camera Driver Side</t>
+  </si>
+  <si>
+    <t>Left Climb Motor</t>
+  </si>
+  <si>
+    <t>Right Climb Motor</t>
+  </si>
+  <si>
+    <t>Climb Encoder</t>
+  </si>
+  <si>
+    <t>CAN 10</t>
+  </si>
+  <si>
+    <t>CAN 24</t>
+  </si>
+  <si>
+    <t>climbEncoder</t>
+  </si>
+  <si>
+    <t>leftClimbMotor</t>
+  </si>
+  <si>
+    <t>rightClimbMotor</t>
+  </si>
+  <si>
+    <t>Left Drivers Trigger</t>
+  </si>
+  <si>
+    <t>Right Drivers Gear Up</t>
+  </si>
+  <si>
+    <t>Right Driver Trigger</t>
+  </si>
+  <si>
+    <t>Left Driver Trigger</t>
   </si>
 </sst>
 </file>
@@ -499,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -690,6 +726,18 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -698,12 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,8 +1064,8 @@
   <dimension ref="A1:AMK241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1040,13 +1082,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="25.5">
       <c r="A2" s="5" t="s">
@@ -1068,10 +1110,10 @@
     <row r="3" spans="1:8" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1180,16 +1222,28 @@
     <row r="12" spans="1:8" s="4" customFormat="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1">
       <c r="A14" s="5"/>
@@ -1201,9 +1255,15 @@
     <row r="15" spans="1:8" s="4" customFormat="1">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="17"/>
+      <c r="C15" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1">
       <c r="A16" s="5"/>
@@ -1229,10 +1289,10 @@
     <row r="19" spans="1:8" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="66"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="39" t="s">
         <v>25</v>
       </c>
@@ -1314,10 +1374,10 @@
     <row r="28" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="64"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="9" t="s">
         <v>25</v>
       </c>
@@ -1449,10 +1509,10 @@
     <row r="45" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="64"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="9" t="s">
         <v>33</v>
       </c>
@@ -1496,10 +1556,10 @@
     <row r="50" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="64"/>
+      <c r="D50" s="68"/>
       <c r="E50" s="9" t="s">
         <v>36</v>
       </c>
@@ -1555,10 +1615,10 @@
     <row r="57" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="38"/>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="64"/>
+      <c r="D57" s="68"/>
       <c r="E57" s="9" t="s">
         <v>40</v>
       </c>
@@ -1600,10 +1660,10 @@
     <row r="62" spans="1:5" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
-      <c r="C62" s="64" t="s">
+      <c r="C62" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="64"/>
+      <c r="D62" s="68"/>
       <c r="E62" s="9" t="s">
         <v>44</v>
       </c>
@@ -1648,10 +1708,10 @@
     <row r="68" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
-      <c r="C68" s="64" t="s">
+      <c r="C68" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="64"/>
+      <c r="D68" s="68"/>
       <c r="E68" s="9" t="s">
         <v>46</v>
       </c>
@@ -1695,10 +1755,10 @@
     <row r="73" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
-      <c r="C73" s="64" t="s">
+      <c r="C73" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="64"/>
+      <c r="D73" s="68"/>
       <c r="E73" s="9" t="s">
         <v>50</v>
       </c>
@@ -1763,10 +1823,10 @@
     <row r="78" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A78" s="38"/>
       <c r="B78" s="38"/>
-      <c r="C78" s="64" t="s">
+      <c r="C78" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="D78" s="64"/>
+      <c r="D78" s="68"/>
       <c r="E78" s="9" t="s">
         <v>63</v>
       </c>
@@ -1786,27 +1846,35 @@
     <row r="80" spans="1:8" s="54" customFormat="1">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
-      <c r="C80" s="68" t="s">
+      <c r="C80" s="65" t="s">
         <v>101</v>
       </c>
       <c r="D80" s="30"/>
-      <c r="E80" s="67" t="s">
+      <c r="E80" s="64" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="4" customFormat="1">
       <c r="A81" s="58"/>
       <c r="B81" s="58"/>
-      <c r="C81" s="31"/>
+      <c r="C81" s="33" t="s">
+        <v>110</v>
+      </c>
       <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
+      <c r="E81" s="33" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="82" spans="1:6" s="4" customFormat="1">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
-      <c r="C82" s="17"/>
+      <c r="C82" s="64" t="s">
+        <v>111</v>
+      </c>
       <c r="D82" s="30"/>
-      <c r="E82" s="17"/>
+      <c r="E82" s="64" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="83" spans="1:6" s="4" customFormat="1">
       <c r="A83" s="43"/>
@@ -1930,10 +1998,10 @@
     <row r="99" spans="1:7" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A99" s="38"/>
       <c r="B99" s="38"/>
-      <c r="C99" s="64" t="s">
+      <c r="C99" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D99" s="64"/>
+      <c r="D99" s="68"/>
       <c r="E99" s="9" t="s">
         <v>63</v>
       </c>

--- a/Kilroy Equipment List 20XX.xlsx
+++ b/Kilroy Equipment List 20XX.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
   <si>
     <t>Kilroy Equipment List (20XX)</t>
   </si>
@@ -354,9 +354,6 @@
     <t>rightClimbMotor</t>
   </si>
   <si>
-    <t>Left Drivers Trigger</t>
-  </si>
-  <si>
     <t>Right Drivers Gear Up</t>
   </si>
   <si>
@@ -364,6 +361,21 @@
   </si>
   <si>
     <t>Left Driver Trigger</t>
+  </si>
+  <si>
+    <t>driverGearUpPressed</t>
+  </si>
+  <si>
+    <t>driverGearDownPressed</t>
+  </si>
+  <si>
+    <t>Left Drivers Gear Up</t>
+  </si>
+  <si>
+    <t>rightDriverCameraSwitchButtonPressed</t>
+  </si>
+  <si>
+    <t>rightOperatorCameraSwitchButtonPressed</t>
   </si>
 </sst>
 </file>
@@ -738,11 +750,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1053,7 +1065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1064,8 +1076,8 @@
   <dimension ref="A1:AMK241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1082,13 +1094,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="25.5">
       <c r="A2" s="5" t="s">
@@ -1110,10 +1122,10 @@
     <row r="3" spans="1:8" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="68"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1374,10 +1386,10 @@
     <row r="28" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="68"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="9" t="s">
         <v>25</v>
       </c>
@@ -1509,10 +1521,10 @@
     <row r="45" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="68"/>
+      <c r="D45" s="69"/>
       <c r="E45" s="9" t="s">
         <v>33</v>
       </c>
@@ -1556,10 +1568,10 @@
     <row r="50" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="68" t="s">
+      <c r="C50" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="68"/>
+      <c r="D50" s="69"/>
       <c r="E50" s="9" t="s">
         <v>36</v>
       </c>
@@ -1615,10 +1627,10 @@
     <row r="57" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="38"/>
-      <c r="C57" s="68" t="s">
+      <c r="C57" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="68"/>
+      <c r="D57" s="69"/>
       <c r="E57" s="9" t="s">
         <v>40</v>
       </c>
@@ -1660,10 +1672,10 @@
     <row r="62" spans="1:5" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
-      <c r="C62" s="68" t="s">
+      <c r="C62" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="68"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="9" t="s">
         <v>44</v>
       </c>
@@ -1708,10 +1720,10 @@
     <row r="68" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
-      <c r="C68" s="68" t="s">
+      <c r="C68" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="68"/>
+      <c r="D68" s="69"/>
       <c r="E68" s="9" t="s">
         <v>46</v>
       </c>
@@ -1755,10 +1767,10 @@
     <row r="73" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
-      <c r="C73" s="68" t="s">
+      <c r="C73" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="68"/>
+      <c r="D73" s="69"/>
       <c r="E73" s="9" t="s">
         <v>50</v>
       </c>
@@ -1823,33 +1835,37 @@
     <row r="78" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A78" s="38"/>
       <c r="B78" s="38"/>
-      <c r="C78" s="68" t="s">
+      <c r="C78" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="D78" s="68"/>
+      <c r="D78" s="69"/>
       <c r="E78" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G78" s="56"/>
     </row>
-    <row r="79" spans="1:8" s="4" customFormat="1">
+    <row r="79" spans="1:8" s="4" customFormat="1" ht="25.5">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="D79" s="34"/>
+      <c r="D79" s="34" t="s">
+        <v>117</v>
+      </c>
       <c r="E79" s="33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="54" customFormat="1">
+    <row r="80" spans="1:8" s="54" customFormat="1" ht="25.5">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="D80" s="30"/>
+      <c r="D80" s="67" t="s">
+        <v>116</v>
+      </c>
       <c r="E80" s="64" t="s">
         <v>100</v>
       </c>
@@ -1858,22 +1874,26 @@
       <c r="A81" s="58"/>
       <c r="B81" s="58"/>
       <c r="C81" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D81" s="31"/>
+        <v>115</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>114</v>
+      </c>
       <c r="E81" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="4" customFormat="1">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="64" t="s">
         <v>111</v>
-      </c>
-      <c r="D82" s="30"/>
-      <c r="E82" s="64" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="4" customFormat="1">
@@ -1998,10 +2018,10 @@
     <row r="99" spans="1:7" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A99" s="38"/>
       <c r="B99" s="38"/>
-      <c r="C99" s="68" t="s">
+      <c r="C99" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D99" s="68"/>
+      <c r="D99" s="69"/>
       <c r="E99" s="9" t="s">
         <v>63</v>
       </c>
@@ -3079,11 +3099,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="C50:D50"/>
@@ -3091,6 +3106,11 @@
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.5" bottom="0.25" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/Kilroy Equipment List 20XX.xlsx
+++ b/Kilroy Equipment List 20XX.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
   <si>
     <t>Kilroy Equipment List (20XX)</t>
   </si>
@@ -54,36 +54,24 @@
     <t>leftFrontMotor</t>
   </si>
   <si>
-    <t>CAN 0</t>
-  </si>
-  <si>
     <t>Right Front Motor (controller_type)</t>
   </si>
   <si>
     <t>rightFrontMotor</t>
   </si>
   <si>
-    <t>CAN 1</t>
-  </si>
-  <si>
     <t>Left Rear Motor (controller_type)</t>
   </si>
   <si>
     <t>leftRearMotor</t>
   </si>
   <si>
-    <t>CAN 2</t>
-  </si>
-  <si>
     <t>Right Rear Motor (controller_type)</t>
   </si>
   <si>
     <t>rightRearMotor</t>
   </si>
   <si>
-    <t>CAN 3</t>
-  </si>
-  <si>
     <t>Left Drive Encoder</t>
   </si>
   <si>
@@ -376,6 +364,27 @@
   </si>
   <si>
     <t>rightOperatorCameraSwitchButtonPressed</t>
+  </si>
+  <si>
+    <t>CAN 12</t>
+  </si>
+  <si>
+    <t>CAN 15</t>
+  </si>
+  <si>
+    <t>CAN 14</t>
+  </si>
+  <si>
+    <t>CAN 6</t>
+  </si>
+  <si>
+    <t>Climb Servo</t>
+  </si>
+  <si>
+    <t>climbServo</t>
+  </si>
+  <si>
+    <t>PWM 2</t>
   </si>
 </sst>
 </file>
@@ -547,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -750,14 +759,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1076,8 +1088,8 @@
   <dimension ref="A1:AMK241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1094,13 +1106,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="25.5">
       <c r="A2" s="5" t="s">
@@ -1122,10 +1134,10 @@
     <row r="3" spans="1:8" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1139,47 +1151,47 @@
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>10</v>
+      <c r="E4" s="66" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>13</v>
+      <c r="E5" s="64" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="23" customFormat="1">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1">
@@ -1196,13 +1208,13 @@
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -1212,13 +1224,13 @@
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
@@ -1235,54 +1247,60 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E12" s="66" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="65" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>105</v>
-      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="64"/>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="21"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1">
       <c r="A17" s="22"/>
@@ -1302,11 +1320,11 @@
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="70" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19" s="70"/>
       <c r="E19" s="39" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1">
@@ -1386,38 +1404,38 @@
     <row r="28" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
-      <c r="C28" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="69"/>
+      <c r="C28" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="68"/>
       <c r="E28" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1">
@@ -1521,20 +1539,20 @@
     <row r="45" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="69"/>
+      <c r="C45" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="68"/>
       <c r="E45" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="4" customFormat="1">
       <c r="A46" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="48"/>
@@ -1549,10 +1567,10 @@
     </row>
     <row r="48" spans="1:5" s="4" customFormat="1">
       <c r="A48" s="22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="30"/>
@@ -1568,25 +1586,25 @@
     <row r="50" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="69"/>
+      <c r="C50" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="68"/>
       <c r="E50" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="46" customFormat="1" ht="13.15" customHeight="1">
       <c r="A51" s="52"/>
       <c r="B51" s="52"/>
       <c r="C51" s="53" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="4" customFormat="1">
@@ -1627,25 +1645,25 @@
     <row r="57" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="38"/>
-      <c r="C57" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="69"/>
+      <c r="C57" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="68"/>
       <c r="E57" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="46" customFormat="1" ht="13.15" customHeight="1">
       <c r="A58" s="52"/>
       <c r="B58" s="52"/>
       <c r="C58" s="53" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E58" s="49" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="4" customFormat="1">
@@ -1672,12 +1690,12 @@
     <row r="62" spans="1:5" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
-      <c r="C62" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="69"/>
+      <c r="C62" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="68"/>
       <c r="E62" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="4" customFormat="1">
@@ -1720,25 +1738,25 @@
     <row r="68" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
-      <c r="C68" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="69"/>
+      <c r="C68" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="68"/>
       <c r="E68" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="4" customFormat="1">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="4" customFormat="1">
@@ -1767,12 +1785,12 @@
     <row r="73" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
-      <c r="C73" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="69"/>
+      <c r="C73" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="68"/>
       <c r="E73" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G73" s="56"/>
     </row>
@@ -1780,13 +1798,13 @@
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D74" s="34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G74" s="56"/>
     </row>
@@ -1794,13 +1812,13 @@
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G75" s="56"/>
     </row>
@@ -1808,13 +1826,13 @@
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G76" s="56"/>
     </row>
@@ -1822,25 +1840,25 @@
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G77" s="56"/>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A78" s="38"/>
       <c r="B78" s="38"/>
-      <c r="C78" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="D78" s="69"/>
+      <c r="C78" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="68"/>
       <c r="E78" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G78" s="56"/>
     </row>
@@ -1848,52 +1866,52 @@
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D79" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="54" customFormat="1" ht="25.5">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="65" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D80" s="67" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E80" s="64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="4" customFormat="1">
       <c r="A81" s="58"/>
       <c r="B81" s="58"/>
       <c r="C81" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="4" customFormat="1">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="64" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D82" s="67" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E82" s="64" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="4" customFormat="1">
@@ -2018,12 +2036,12 @@
     <row r="99" spans="1:7" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A99" s="38"/>
       <c r="B99" s="38"/>
-      <c r="C99" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="D99" s="69"/>
+      <c r="C99" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" s="68"/>
       <c r="E99" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G99" s="56"/>
     </row>
@@ -2031,13 +2049,13 @@
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
       <c r="C100" s="57" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D100" s="43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="4" customFormat="1">
@@ -2051,11 +2069,11 @@
       <c r="A102" s="38"/>
       <c r="B102" s="38"/>
       <c r="C102" s="39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D102" s="60"/>
       <c r="E102" s="39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="4" customFormat="1">
@@ -2069,39 +2087,39 @@
       <c r="A104" s="22"/>
       <c r="B104" s="22"/>
       <c r="C104" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="4" customFormat="1">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D105" s="34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E105" s="61" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="4" customFormat="1">
       <c r="A106" s="22"/>
       <c r="B106" s="22"/>
       <c r="C106" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E106" s="62" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="4" customFormat="1">
@@ -2115,78 +2133,78 @@
       <c r="A108" s="22"/>
       <c r="B108" s="22"/>
       <c r="C108" s="29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="4" customFormat="1">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="4" customFormat="1">
       <c r="A110" s="22"/>
       <c r="B110" s="22"/>
       <c r="C110" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="4" customFormat="1">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="4" customFormat="1">
       <c r="A112" s="22"/>
       <c r="B112" s="22"/>
       <c r="C112" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="4" customFormat="1">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="4" customFormat="1">
@@ -2200,26 +2218,26 @@
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D115" s="32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="4" customFormat="1">
       <c r="A116" s="22"/>
       <c r="B116" s="22"/>
       <c r="C116" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="4" customFormat="1">
@@ -3099,6 +3117,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="C50:D50"/>
@@ -3106,11 +3129,6 @@
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.5" bottom="0.25" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/Kilroy Equipment List 20XX.xlsx
+++ b/Kilroy Equipment List 20XX.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="129">
   <si>
     <t>Kilroy Equipment List (20XX)</t>
   </si>
@@ -385,6 +385,30 @@
   </si>
   <si>
     <t>PWM 2</t>
+  </si>
+  <si>
+    <t>Red Light Launcher Sensor 4</t>
+  </si>
+  <si>
+    <t>Red Light Launcher Sensor 3</t>
+  </si>
+  <si>
+    <t>Red Light Launcher Sensor 2</t>
+  </si>
+  <si>
+    <t>Red Light Launcher Sensor 1</t>
+  </si>
+  <si>
+    <t>DIO 11</t>
+  </si>
+  <si>
+    <t>DIO 13</t>
+  </si>
+  <si>
+    <t>DIO14</t>
+  </si>
+  <si>
+    <t>DIO 12</t>
   </si>
 </sst>
 </file>
@@ -759,17 +783,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1077,7 +1101,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1087,9 +1111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1134,10 +1158,10 @@
     <row r="3" spans="1:8" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="68"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1278,7 +1302,7 @@
       <c r="D14" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="68" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1319,10 +1343,10 @@
     <row r="19" spans="1:8" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="70"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="39" t="s">
         <v>21</v>
       </c>
@@ -1330,23 +1354,35 @@
     <row r="20" spans="1:8" s="4" customFormat="1">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="29"/>
+      <c r="C20" s="65" t="s">
+        <v>124</v>
+      </c>
       <c r="D20" s="30"/>
-      <c r="E20" s="17"/>
+      <c r="E20" s="64" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1">
       <c r="A21" s="40"/>
       <c r="B21" s="40"/>
-      <c r="C21" s="33"/>
+      <c r="C21" s="33" t="s">
+        <v>123</v>
+      </c>
       <c r="D21" s="34"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="66" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="29"/>
+      <c r="C22" s="65" t="s">
+        <v>122</v>
+      </c>
       <c r="D22" s="30"/>
-      <c r="E22" s="17"/>
+      <c r="E22" s="64" t="s">
+        <v>125</v>
+      </c>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -1354,9 +1390,13 @@
     <row r="23" spans="1:8" s="4" customFormat="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="33"/>
+      <c r="C23" s="33" t="s">
+        <v>121</v>
+      </c>
       <c r="D23" s="34"/>
-      <c r="E23" s="13"/>
+      <c r="E23" s="66" t="s">
+        <v>127</v>
+      </c>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -1404,10 +1444,10 @@
     <row r="28" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="68"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="9" t="s">
         <v>21</v>
       </c>
@@ -1539,10 +1579,10 @@
     <row r="45" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="68"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="9" t="s">
         <v>29</v>
       </c>
@@ -1586,10 +1626,10 @@
     <row r="50" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="68" t="s">
+      <c r="C50" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="68"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="9" t="s">
         <v>32</v>
       </c>
@@ -1645,10 +1685,10 @@
     <row r="57" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="38"/>
-      <c r="C57" s="68" t="s">
+      <c r="C57" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="68"/>
+      <c r="D57" s="70"/>
       <c r="E57" s="9" t="s">
         <v>36</v>
       </c>
@@ -1690,10 +1730,10 @@
     <row r="62" spans="1:5" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
-      <c r="C62" s="68" t="s">
+      <c r="C62" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="68"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="9" t="s">
         <v>40</v>
       </c>
@@ -1738,10 +1778,10 @@
     <row r="68" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
-      <c r="C68" s="68" t="s">
+      <c r="C68" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D68" s="68"/>
+      <c r="D68" s="70"/>
       <c r="E68" s="9" t="s">
         <v>42</v>
       </c>
@@ -1785,10 +1825,10 @@
     <row r="73" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
-      <c r="C73" s="68" t="s">
+      <c r="C73" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="68"/>
+      <c r="D73" s="70"/>
       <c r="E73" s="9" t="s">
         <v>46</v>
       </c>
@@ -1853,10 +1893,10 @@
     <row r="78" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A78" s="38"/>
       <c r="B78" s="38"/>
-      <c r="C78" s="68" t="s">
+      <c r="C78" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D78" s="68"/>
+      <c r="D78" s="70"/>
       <c r="E78" s="9" t="s">
         <v>59</v>
       </c>
@@ -2036,10 +2076,10 @@
     <row r="99" spans="1:7" s="4" customFormat="1" ht="13.35" customHeight="1">
       <c r="A99" s="38"/>
       <c r="B99" s="38"/>
-      <c r="C99" s="68" t="s">
+      <c r="C99" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="D99" s="68"/>
+      <c r="D99" s="70"/>
       <c r="E99" s="9" t="s">
         <v>59</v>
       </c>
@@ -3117,11 +3157,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="C50:D50"/>
@@ -3129,6 +3164,11 @@
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.5" bottom="0.25" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/Kilroy Equipment List 20XX.xlsx
+++ b/Kilroy Equipment List 20XX.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="10410" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19410" windowHeight="10410" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$101</definedName>
   </definedNames>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="163">
   <si>
     <t>Kilroy Equipment List (20XX)</t>
   </si>
@@ -48,30 +48,6 @@
     <t>PWM Port / CAN ID</t>
   </si>
   <si>
-    <t>Left Front Motor (controller_type)</t>
-  </si>
-  <si>
-    <t>leftFrontMotor</t>
-  </si>
-  <si>
-    <t>Right Front Motor (controller_type)</t>
-  </si>
-  <si>
-    <t>rightFrontMotor</t>
-  </si>
-  <si>
-    <t>Left Rear Motor (controller_type)</t>
-  </si>
-  <si>
-    <t>leftRearMotor</t>
-  </si>
-  <si>
-    <t>Right Rear Motor (controller_type)</t>
-  </si>
-  <si>
-    <t>rightRearMotor</t>
-  </si>
-  <si>
     <t>Left Drive Encoder</t>
   </si>
   <si>
@@ -409,6 +385,132 @@
   </si>
   <si>
     <t>DIO 12</t>
+  </si>
+  <si>
+    <t>ballCountInitSwitch</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>infraredSensor</t>
+  </si>
+  <si>
+    <t>Infrared Sensor</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>ballPickup1</t>
+  </si>
+  <si>
+    <t>ballPickup2</t>
+  </si>
+  <si>
+    <t>ballPickup3</t>
+  </si>
+  <si>
+    <t>ballPickup4</t>
+  </si>
+  <si>
+    <t>floorLight</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Floor Light</t>
+  </si>
+  <si>
+    <t>ultraSonic</t>
+  </si>
+  <si>
+    <t>Ball Counter</t>
+  </si>
+  <si>
+    <t>Spin Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            spinSwitch</t>
+  </si>
+  <si>
+    <t>intakePiston</t>
+  </si>
+  <si>
+    <t>Intake Piston</t>
+  </si>
+  <si>
+    <t>subtractBallButton</t>
+  </si>
+  <si>
+    <t>addBallButton</t>
+  </si>
+  <si>
+    <t>Right 8</t>
+  </si>
+  <si>
+    <t>Right 9</t>
+  </si>
+  <si>
+    <t>4, 5</t>
+  </si>
+  <si>
+    <t>leftTopMotor</t>
+  </si>
+  <si>
+    <t>Left Top Motor (controller_type)</t>
+  </si>
+  <si>
+    <t>Right Top Motor (controller_type)</t>
+  </si>
+  <si>
+    <t>Left Bottom Motor (controller_type)</t>
+  </si>
+  <si>
+    <t>Right Bottom Motor (controller_type)</t>
+  </si>
+  <si>
+    <t>rightTopMotor</t>
+  </si>
+  <si>
+    <t>leftBottomMotor</t>
+  </si>
+  <si>
+    <t>rightBottomMotor</t>
+  </si>
+  <si>
+    <t>Ball Sensor 1</t>
+  </si>
+  <si>
+    <t>Ball Sensor 2</t>
+  </si>
+  <si>
+    <t>Ball Sensor 3</t>
+  </si>
+  <si>
+    <t>Ball Sensor 4</t>
+  </si>
+  <si>
+    <t>Subract Ball Button</t>
+  </si>
+  <si>
+    <t>Add Ball Button</t>
+  </si>
+  <si>
+    <t>Ultrasonic Detector</t>
   </si>
 </sst>
 </file>
@@ -580,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -612,6 +714,24 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -621,30 +741,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -786,14 +882,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,7 +1204,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1111,34 +1214,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="1025" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="18.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" customWidth="1"/>
+    <col min="9" max="1025" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="26">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1158,10 +1261,10 @@
     <row r="3" spans="1:8" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="70"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1169,1115 +1272,1183 @@
     <row r="4" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="21" customFormat="1" ht="13">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D10" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="64" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="23" customFormat="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1">
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="13">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1">
+      <c r="C12" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="13">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="68" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="64"/>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1">
+      <c r="C14" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="62"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="13">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="35"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="4" customFormat="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="64" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="4" customFormat="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="4" customFormat="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" s="4" customFormat="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:8" s="4" customFormat="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="1:8" s="4" customFormat="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-    </row>
-    <row r="26" spans="1:8" s="4" customFormat="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-    </row>
-    <row r="27" spans="1:8" s="4" customFormat="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-    </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="70"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" ht="13.4" customHeight="1">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="67"/>
       <c r="E28" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="4" customFormat="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="4" customFormat="1" ht="13">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="4" customFormat="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:8" s="4" customFormat="1">
+      <c r="C30" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="4" customFormat="1" ht="13">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:5" s="4" customFormat="1">
+      <c r="C32" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="13">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="21"/>
-    </row>
-    <row r="35" spans="1:5" s="4" customFormat="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:5" s="4" customFormat="1">
+      <c r="C34" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="13">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" spans="1:5" s="4" customFormat="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="1:5" s="4" customFormat="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" s="4" customFormat="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="17"/>
-    </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" ht="13.35" customHeight="1">
+      <c r="C36" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" s="4" customFormat="1" ht="13.4" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="41" spans="1:5" s="46" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="17"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" s="44" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" s="46" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="17"/>
-    </row>
-    <row r="44" spans="1:5" s="46" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" s="44" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" s="44" customFormat="1" ht="13.15" customHeight="1">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="21"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="19"/>
     </row>
     <row r="45" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="70" t="s">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="67"/>
+      <c r="E45" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A46" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="47"/>
+    </row>
+    <row r="47" spans="1:5" s="4" customFormat="1">
+      <c r="A47" s="48"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="29"/>
+    </row>
+    <row r="48" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A48" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="67"/>
+      <c r="E50" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="44" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="67"/>
+      <c r="E57" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="70"/>
-      <c r="E45" s="9" t="s">
+    </row>
+    <row r="58" spans="1:5" s="44" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" s="4" customFormat="1">
-      <c r="A46" s="47" t="s">
+      <c r="D58" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="49"/>
-    </row>
-    <row r="47" spans="1:5" s="4" customFormat="1">
-      <c r="A47" s="50"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="31"/>
-    </row>
-    <row r="48" spans="1:5" s="4" customFormat="1">
-      <c r="A48" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="17"/>
-    </row>
-    <row r="49" spans="1:5" s="4" customFormat="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="70" t="s">
+      <c r="E58" s="47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:5" s="4" customFormat="1" ht="13.4" customHeight="1">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="9" t="s">
+      <c r="D62" s="67"/>
+      <c r="E62" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="46" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="53" t="s">
+    <row r="63" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A63" s="50"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" s="62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="11"/>
+    </row>
+    <row r="67" spans="1:8" s="52" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="15"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+    </row>
+    <row r="68" spans="1:8" s="4" customFormat="1" ht="13.4" customHeight="1">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="48" t="s">
+      <c r="D68" s="67"/>
+      <c r="E68" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="4" customFormat="1">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="1:5" s="4" customFormat="1">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="54" spans="1:5" s="4" customFormat="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="13"/>
-    </row>
-    <row r="55" spans="1:5" s="4" customFormat="1">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="17"/>
-    </row>
-    <row r="56" spans="1:5" s="4" customFormat="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="13"/>
-    </row>
-    <row r="57" spans="1:5" s="4" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="70" t="s">
+    </row>
+    <row r="69" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="70"/>
-      <c r="E57" s="9" t="s">
+      <c r="D69" s="41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" s="46" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="53" t="s">
+      <c r="E69" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="1:8" s="52" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="15"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+    </row>
+    <row r="73" spans="1:8" s="4" customFormat="1" ht="13.4" customHeight="1">
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="D73" s="67"/>
+      <c r="E73" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="4" customFormat="1">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="1:5" s="4" customFormat="1">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="17"/>
-    </row>
-    <row r="61" spans="1:5" s="4" customFormat="1">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="13"/>
-    </row>
-    <row r="62" spans="1:5" s="4" customFormat="1" ht="13.35" customHeight="1">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="70" t="s">
+      <c r="G73" s="54"/>
+    </row>
+    <row r="74" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="70"/>
-      <c r="E62" s="9" t="s">
+      <c r="D74" s="32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" s="4" customFormat="1">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="17"/>
-    </row>
-    <row r="64" spans="1:5" s="4" customFormat="1">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="1:8" s="4" customFormat="1">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="17"/>
-    </row>
-    <row r="66" spans="1:8" s="4" customFormat="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="13"/>
-    </row>
-    <row r="67" spans="1:8" s="54" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="17"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-    </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="70" t="s">
+      <c r="E74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="54"/>
+    </row>
+    <row r="75" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D68" s="70"/>
-      <c r="E68" s="9" t="s">
+      <c r="D75" s="28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" s="4" customFormat="1">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="42" t="s">
+      <c r="E75" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="43" t="s">
+      <c r="G75" s="54"/>
+    </row>
+    <row r="76" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="4" customFormat="1">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="17"/>
-    </row>
-    <row r="71" spans="1:8" s="4" customFormat="1">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="13"/>
-    </row>
-    <row r="72" spans="1:8" s="54" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="17"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-    </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="70" t="s">
+      <c r="D76" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="70"/>
-      <c r="E73" s="9" t="s">
+      <c r="E76" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G73" s="56"/>
-    </row>
-    <row r="74" spans="1:8" s="4" customFormat="1">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="33" t="s">
+      <c r="G76" s="54"/>
+    </row>
+    <row r="77" spans="1:8" s="4" customFormat="1" ht="13">
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="D77" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E74" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" s="56"/>
-    </row>
-    <row r="75" spans="1:8" s="4" customFormat="1">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="29" t="s">
+      <c r="E77" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="G77" s="54"/>
+    </row>
+    <row r="78" spans="1:8" s="4" customFormat="1" ht="13.4" customHeight="1">
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="D78" s="67"/>
+      <c r="E78" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G75" s="56"/>
-    </row>
-    <row r="76" spans="1:8" s="4" customFormat="1">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G76" s="56"/>
-    </row>
-    <row r="77" spans="1:8" s="4" customFormat="1">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G77" s="56"/>
-    </row>
-    <row r="78" spans="1:8" s="4" customFormat="1" ht="13.35" customHeight="1">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="70"/>
-      <c r="E78" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G78" s="56"/>
+      <c r="G78" s="54"/>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1" ht="25.5">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D79" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="54" customFormat="1" ht="25.5">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D80" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="E80" s="64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="4" customFormat="1">
-      <c r="A81" s="58"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="4" customFormat="1">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="D82" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="E82" s="64" t="s">
-        <v>107</v>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="52" customFormat="1" ht="25.5">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" s="62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="4" customFormat="1" ht="13">
+      <c r="A81" s="56"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="4" customFormat="1" ht="13">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82" s="62" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="4" customFormat="1">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="13"/>
-    </row>
-    <row r="84" spans="1:6" s="4" customFormat="1">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="17"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83" s="64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="4" customFormat="1" ht="13">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="62" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="85" spans="1:6" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A85" s="5"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="56"/>
-    </row>
-    <row r="86" spans="1:6" s="4" customFormat="1">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="17"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="54"/>
+    </row>
+    <row r="86" spans="1:6" s="4" customFormat="1" ht="13">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="15"/>
     </row>
     <row r="87" spans="1:6" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A87" s="5"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="56"/>
-    </row>
-    <row r="88" spans="1:6" s="4" customFormat="1">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="17"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="54"/>
+    </row>
+    <row r="88" spans="1:6" s="4" customFormat="1" ht="13">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="15"/>
     </row>
     <row r="89" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A89" s="5"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="56"/>
-    </row>
-    <row r="90" spans="1:6" s="4" customFormat="1">
-      <c r="A90" s="22"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="17"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="54"/>
+    </row>
+    <row r="90" spans="1:6" s="4" customFormat="1" ht="13">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="15"/>
     </row>
     <row r="91" spans="1:6" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A91" s="5"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="56"/>
-    </row>
-    <row r="92" spans="1:6" s="4" customFormat="1">
-      <c r="A92" s="22"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="17"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="54"/>
+    </row>
+    <row r="92" spans="1:6" s="4" customFormat="1" ht="13">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="15"/>
     </row>
     <row r="93" spans="1:6" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A93" s="5"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="56"/>
-    </row>
-    <row r="94" spans="1:6" s="4" customFormat="1">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="17"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="54"/>
+    </row>
+    <row r="94" spans="1:6" s="4" customFormat="1" ht="13">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="15"/>
     </row>
     <row r="95" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A95" s="5"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="56"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="54"/>
     </row>
     <row r="96" spans="1:6" s="4" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A96" s="22"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="17"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="15"/>
     </row>
     <row r="97" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1">
       <c r="A97" s="5"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="56"/>
-    </row>
-    <row r="98" spans="1:7" s="4" customFormat="1">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="17"/>
-    </row>
-    <row r="99" spans="1:7" s="4" customFormat="1" ht="13.35" customHeight="1">
-      <c r="A99" s="38"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="D99" s="70"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="54"/>
+    </row>
+    <row r="98" spans="1:7" s="4" customFormat="1" ht="13">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="15"/>
+    </row>
+    <row r="99" spans="1:7" s="4" customFormat="1" ht="13.4" customHeight="1">
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="67"/>
       <c r="E99" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G99" s="56"/>
-    </row>
-    <row r="100" spans="1:7" s="4" customFormat="1">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="D100" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E100" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="4" customFormat="1">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="17"/>
-    </row>
-    <row r="102" spans="1:7" s="4" customFormat="1">
-      <c r="A102" s="38"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D102" s="60"/>
-      <c r="E102" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="4" customFormat="1">
+        <v>51</v>
+      </c>
+      <c r="G99" s="54"/>
+    </row>
+    <row r="100" spans="1:7" s="4" customFormat="1" ht="13">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E100" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="4" customFormat="1" ht="13">
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="15"/>
+    </row>
+    <row r="102" spans="1:7" s="4" customFormat="1" ht="13">
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D102" s="58"/>
+      <c r="E102" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="4" customFormat="1" ht="13">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="21"/>
-    </row>
-    <row r="104" spans="1:7" s="4" customFormat="1">
-      <c r="A104" s="22"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E104" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="4" customFormat="1">
+      <c r="C103" s="40"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="19"/>
+    </row>
+    <row r="104" spans="1:7" s="4" customFormat="1" ht="13">
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="4" customFormat="1" ht="13">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D105" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E105" s="61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="4" customFormat="1">
-      <c r="A106" s="22"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E106" s="62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="4" customFormat="1">
+      <c r="C105" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E105" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="4" customFormat="1" ht="13">
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="4" customFormat="1" ht="13">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="21"/>
-    </row>
-    <row r="108" spans="1:7" s="4" customFormat="1">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E108" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="4" customFormat="1">
+      <c r="C107" s="29"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="19"/>
+    </row>
+    <row r="108" spans="1:7" s="4" customFormat="1" ht="13">
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="4" customFormat="1" ht="13">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
-      <c r="C109" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D109" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="4" customFormat="1">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E110" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="4" customFormat="1">
+      <c r="C109" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="4" customFormat="1" ht="13">
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="4" customFormat="1" ht="13">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
-      <c r="C111" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D111" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E111" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="4" customFormat="1">
-      <c r="A112" s="22"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="4" customFormat="1">
+      <c r="C111" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E111" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="4" customFormat="1" ht="13">
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="4" customFormat="1" ht="13">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
-      <c r="C113" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D113" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="4" customFormat="1">
-      <c r="A114" s="22"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="17"/>
-    </row>
-    <row r="115" spans="1:5" s="4" customFormat="1">
+      <c r="C113" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="15"/>
+    </row>
+    <row r="115" spans="1:5" s="4" customFormat="1" ht="13">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
-      <c r="C115" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D115" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E115" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="4" customFormat="1">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D116" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E116" s="17" t="s">
-        <v>36</v>
+      <c r="C115" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E115" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="4" customFormat="1" ht="13">
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="4" customFormat="1">
@@ -2285,560 +2456,560 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="63"/>
+      <c r="E117" s="61"/>
     </row>
     <row r="118" spans="1:5" s="4" customFormat="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="63"/>
+      <c r="E118" s="61"/>
     </row>
     <row r="119" spans="1:5" s="4" customFormat="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="63"/>
+      <c r="E119" s="61"/>
     </row>
     <row r="120" spans="1:5" s="4" customFormat="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="63"/>
+      <c r="E120" s="61"/>
     </row>
     <row r="121" spans="1:5" s="4" customFormat="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="63"/>
+      <c r="E121" s="61"/>
     </row>
     <row r="122" spans="1:5" s="4" customFormat="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="63"/>
+      <c r="E122" s="61"/>
     </row>
     <row r="123" spans="1:5" s="4" customFormat="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="63"/>
+      <c r="E123" s="61"/>
     </row>
     <row r="124" spans="1:5" s="4" customFormat="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="63"/>
+      <c r="E124" s="61"/>
     </row>
     <row r="125" spans="1:5" s="4" customFormat="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="63"/>
+      <c r="E125" s="61"/>
     </row>
     <row r="126" spans="1:5" s="4" customFormat="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="63"/>
+      <c r="E126" s="61"/>
     </row>
     <row r="127" spans="1:5" s="4" customFormat="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="63"/>
+      <c r="E127" s="61"/>
     </row>
     <row r="128" spans="1:5" s="4" customFormat="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="63"/>
+      <c r="E128" s="61"/>
     </row>
     <row r="129" spans="1:5" s="4" customFormat="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="63"/>
+      <c r="E129" s="61"/>
     </row>
     <row r="130" spans="1:5" s="4" customFormat="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="63"/>
+      <c r="E130" s="61"/>
     </row>
     <row r="131" spans="1:5" s="4" customFormat="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="63"/>
+      <c r="E131" s="61"/>
     </row>
     <row r="132" spans="1:5" s="4" customFormat="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="2"/>
-      <c r="E132" s="63"/>
+      <c r="E132" s="61"/>
     </row>
     <row r="133" spans="1:5" s="4" customFormat="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="2"/>
-      <c r="E133" s="63"/>
+      <c r="E133" s="61"/>
     </row>
     <row r="134" spans="1:5" s="4" customFormat="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="2"/>
-      <c r="E134" s="63"/>
+      <c r="E134" s="61"/>
     </row>
     <row r="135" spans="1:5" s="4" customFormat="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="2"/>
-      <c r="E135" s="63"/>
+      <c r="E135" s="61"/>
     </row>
     <row r="136" spans="1:5" s="4" customFormat="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="63"/>
+      <c r="E136" s="61"/>
     </row>
     <row r="137" spans="1:5" s="4" customFormat="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="63"/>
+      <c r="E137" s="61"/>
     </row>
     <row r="138" spans="1:5" s="4" customFormat="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="63"/>
+      <c r="E138" s="61"/>
     </row>
     <row r="139" spans="1:5" s="4" customFormat="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="63"/>
+      <c r="E139" s="61"/>
     </row>
     <row r="140" spans="1:5" s="4" customFormat="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="63"/>
+      <c r="E140" s="61"/>
     </row>
     <row r="141" spans="1:5" s="4" customFormat="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="2"/>
-      <c r="E141" s="63"/>
+      <c r="E141" s="61"/>
     </row>
     <row r="142" spans="1:5" s="4" customFormat="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="63"/>
+      <c r="E142" s="61"/>
     </row>
     <row r="143" spans="1:5" s="4" customFormat="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="63"/>
+      <c r="E143" s="61"/>
     </row>
     <row r="144" spans="1:5" s="4" customFormat="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="2"/>
-      <c r="E144" s="63"/>
+      <c r="E144" s="61"/>
     </row>
     <row r="145" spans="1:5" s="4" customFormat="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="63"/>
+      <c r="E145" s="61"/>
     </row>
     <row r="146" spans="1:5" s="4" customFormat="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="63"/>
+      <c r="E146" s="61"/>
     </row>
     <row r="147" spans="1:5" s="4" customFormat="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="63"/>
+      <c r="E147" s="61"/>
     </row>
     <row r="148" spans="1:5" s="4" customFormat="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="63"/>
+      <c r="E148" s="61"/>
     </row>
     <row r="149" spans="1:5" s="4" customFormat="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="2"/>
-      <c r="E149" s="63"/>
+      <c r="E149" s="61"/>
     </row>
     <row r="150" spans="1:5" s="4" customFormat="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="63"/>
+      <c r="E150" s="61"/>
     </row>
     <row r="151" spans="1:5" s="4" customFormat="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="2"/>
-      <c r="E151" s="63"/>
+      <c r="E151" s="61"/>
     </row>
     <row r="152" spans="1:5" s="4" customFormat="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="2"/>
-      <c r="E152" s="63"/>
+      <c r="E152" s="61"/>
     </row>
     <row r="153" spans="1:5" s="4" customFormat="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="2"/>
-      <c r="E153" s="63"/>
+      <c r="E153" s="61"/>
     </row>
     <row r="154" spans="1:5" s="4" customFormat="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="2"/>
-      <c r="E154" s="63"/>
+      <c r="E154" s="61"/>
     </row>
     <row r="155" spans="1:5" s="4" customFormat="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="2"/>
-      <c r="E155" s="63"/>
+      <c r="E155" s="61"/>
     </row>
     <row r="156" spans="1:5" s="4" customFormat="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="2"/>
-      <c r="E156" s="63"/>
+      <c r="E156" s="61"/>
     </row>
     <row r="157" spans="1:5" s="4" customFormat="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="2"/>
-      <c r="E157" s="63"/>
+      <c r="E157" s="61"/>
     </row>
     <row r="158" spans="1:5" s="4" customFormat="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="2"/>
-      <c r="E158" s="63"/>
+      <c r="E158" s="61"/>
     </row>
     <row r="159" spans="1:5" s="4" customFormat="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="2"/>
-      <c r="E159" s="63"/>
+      <c r="E159" s="61"/>
     </row>
     <row r="160" spans="1:5" s="4" customFormat="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="63"/>
+      <c r="E160" s="61"/>
     </row>
     <row r="161" spans="1:5" s="4" customFormat="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="2"/>
-      <c r="E161" s="63"/>
+      <c r="E161" s="61"/>
     </row>
     <row r="162" spans="1:5" s="4" customFormat="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="2"/>
-      <c r="E162" s="63"/>
+      <c r="E162" s="61"/>
     </row>
     <row r="163" spans="1:5" s="4" customFormat="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="2"/>
-      <c r="E163" s="63"/>
+      <c r="E163" s="61"/>
     </row>
     <row r="164" spans="1:5" s="4" customFormat="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="2"/>
-      <c r="E164" s="63"/>
+      <c r="E164" s="61"/>
     </row>
     <row r="165" spans="1:5" s="4" customFormat="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="2"/>
-      <c r="E165" s="63"/>
+      <c r="E165" s="61"/>
     </row>
     <row r="166" spans="1:5" s="4" customFormat="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="2"/>
-      <c r="E166" s="63"/>
+      <c r="E166" s="61"/>
     </row>
     <row r="167" spans="1:5" s="4" customFormat="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="2"/>
-      <c r="E167" s="63"/>
+      <c r="E167" s="61"/>
     </row>
     <row r="168" spans="1:5" s="4" customFormat="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="2"/>
-      <c r="E168" s="63"/>
+      <c r="E168" s="61"/>
     </row>
     <row r="169" spans="1:5" s="4" customFormat="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="2"/>
-      <c r="E169" s="63"/>
+      <c r="E169" s="61"/>
     </row>
     <row r="170" spans="1:5" s="4" customFormat="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="2"/>
-      <c r="E170" s="63"/>
+      <c r="E170" s="61"/>
     </row>
     <row r="171" spans="1:5" s="4" customFormat="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="2"/>
-      <c r="E171" s="63"/>
+      <c r="E171" s="61"/>
     </row>
     <row r="172" spans="1:5" s="4" customFormat="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="2"/>
-      <c r="E172" s="63"/>
+      <c r="E172" s="61"/>
     </row>
     <row r="173" spans="1:5" s="4" customFormat="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="2"/>
-      <c r="E173" s="63"/>
+      <c r="E173" s="61"/>
     </row>
     <row r="174" spans="1:5" s="4" customFormat="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="2"/>
-      <c r="E174" s="63"/>
+      <c r="E174" s="61"/>
     </row>
     <row r="175" spans="1:5" s="4" customFormat="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="2"/>
-      <c r="E175" s="63"/>
+      <c r="E175" s="61"/>
     </row>
     <row r="176" spans="1:5" s="4" customFormat="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="2"/>
-      <c r="E176" s="63"/>
+      <c r="E176" s="61"/>
     </row>
     <row r="177" spans="1:5" s="4" customFormat="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="2"/>
-      <c r="E177" s="63"/>
+      <c r="E177" s="61"/>
     </row>
     <row r="178" spans="1:5" s="4" customFormat="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="2"/>
-      <c r="E178" s="63"/>
+      <c r="E178" s="61"/>
     </row>
     <row r="179" spans="1:5" s="4" customFormat="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="2"/>
-      <c r="E179" s="63"/>
+      <c r="E179" s="61"/>
     </row>
     <row r="180" spans="1:5" s="4" customFormat="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="2"/>
-      <c r="E180" s="63"/>
+      <c r="E180" s="61"/>
     </row>
     <row r="181" spans="1:5" s="4" customFormat="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="2"/>
-      <c r="E181" s="63"/>
+      <c r="E181" s="61"/>
     </row>
     <row r="182" spans="1:5" s="4" customFormat="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="2"/>
-      <c r="E182" s="63"/>
+      <c r="E182" s="61"/>
     </row>
     <row r="183" spans="1:5" s="4" customFormat="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="2"/>
-      <c r="E183" s="63"/>
+      <c r="E183" s="61"/>
     </row>
     <row r="184" spans="1:5" s="4" customFormat="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="2"/>
-      <c r="E184" s="63"/>
+      <c r="E184" s="61"/>
     </row>
     <row r="185" spans="1:5" s="4" customFormat="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="2"/>
-      <c r="E185" s="63"/>
+      <c r="E185" s="61"/>
     </row>
     <row r="186" spans="1:5" s="4" customFormat="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="2"/>
-      <c r="E186" s="63"/>
+      <c r="E186" s="61"/>
     </row>
     <row r="187" spans="1:5" s="4" customFormat="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="2"/>
-      <c r="E187" s="63"/>
+      <c r="E187" s="61"/>
     </row>
     <row r="188" spans="1:5" s="4" customFormat="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="2"/>
-      <c r="E188" s="63"/>
+      <c r="E188" s="61"/>
     </row>
     <row r="189" spans="1:5" s="4" customFormat="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="2"/>
-      <c r="E189" s="63"/>
+      <c r="E189" s="61"/>
     </row>
     <row r="190" spans="1:5" s="4" customFormat="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="2"/>
-      <c r="E190" s="63"/>
+      <c r="E190" s="61"/>
     </row>
     <row r="191" spans="1:5" s="4" customFormat="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="2"/>
-      <c r="E191" s="63"/>
+      <c r="E191" s="61"/>
     </row>
     <row r="192" spans="1:5" s="4" customFormat="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="2"/>
-      <c r="E192" s="63"/>
+      <c r="E192" s="61"/>
     </row>
     <row r="193" spans="1:5" s="4" customFormat="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="2"/>
-      <c r="E193" s="63"/>
+      <c r="E193" s="61"/>
     </row>
     <row r="194" spans="1:5" s="4" customFormat="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="2"/>
-      <c r="E194" s="63"/>
+      <c r="E194" s="61"/>
     </row>
     <row r="195" spans="1:5" s="4" customFormat="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="2"/>
-      <c r="E195" s="63"/>
+      <c r="E195" s="61"/>
     </row>
     <row r="196" spans="1:5" s="4" customFormat="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="2"/>
-      <c r="E196" s="63"/>
+      <c r="E196" s="61"/>
     </row>
     <row r="197" spans="1:5" s="4" customFormat="1">
       <c r="A197" s="1"/>
@@ -3157,6 +3328,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="C50:D50"/>
@@ -3164,13 +3340,8 @@
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.5" bottom="0.25" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Kilroy Equipment List 20XX.xlsx
+++ b/Kilroy Equipment List 20XX.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
   <si>
     <t>Kilroy Equipment List (20XX)</t>
   </si>
@@ -399,16 +399,28 @@
     <t>Red Light Launcher Sensor 1</t>
   </si>
   <si>
-    <t>DIO 11</t>
-  </si>
-  <si>
-    <t>DIO 13</t>
-  </si>
-  <si>
-    <t>DIO14</t>
-  </si>
-  <si>
-    <t>DIO 12</t>
+    <t>ballPickup1</t>
+  </si>
+  <si>
+    <t>ballPickup2</t>
+  </si>
+  <si>
+    <t>ballPickup3</t>
+  </si>
+  <si>
+    <t>ballpickup4</t>
+  </si>
+  <si>
+    <t>DIO 24</t>
+  </si>
+  <si>
+    <t>DIO 23</t>
+  </si>
+  <si>
+    <t>DIO 22</t>
+  </si>
+  <si>
+    <t>DIO 21</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1124,8 @@
   <dimension ref="A1:AMK241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1357,9 +1369,11 @@
       <c r="C20" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="30"/>
+      <c r="D20" s="67" t="s">
+        <v>125</v>
+      </c>
       <c r="E20" s="64" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1">
@@ -1368,9 +1382,11 @@
       <c r="C21" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="34" t="s">
+        <v>126</v>
+      </c>
       <c r="E21" s="66" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1">
@@ -1379,9 +1395,11 @@
       <c r="C22" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="67" t="s">
+        <v>127</v>
+      </c>
       <c r="E22" s="64" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
@@ -1393,9 +1411,11 @@
       <c r="C23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="34" t="s">
+        <v>128</v>
+      </c>
       <c r="E23" s="66" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
